--- a/deelnemende_teams.xlsx
+++ b/deelnemende_teams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Teamnaam</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>NTDS_Utrecht.xlsx</t>
+  </si>
+  <si>
+    <t>Footloose</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>NTDS_Eindhoven.xlsx</t>
   </si>
 </sst>
 </file>
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,23 +417,34 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/deelnemende_teams.xlsx
+++ b/deelnemende_teams.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Teamnaam</t>
   </si>
@@ -64,6 +64,33 @@
   </si>
   <si>
     <t>NTDS_Eindhoven.xlsx</t>
+  </si>
+  <si>
+    <t>Dance Fever</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>AmsterDance</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>NTDS_Amsterdam.xlsx</t>
+  </si>
+  <si>
+    <t>NTDS_Nijmegen.xlsx</t>
+  </si>
+  <si>
+    <t>Erasmus Dance Society</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>NTDS_Rotterdam.xlsx</t>
   </si>
 </sst>
 </file>
@@ -381,15 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -417,34 +445,67 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>

--- a/deelnemende_teams.xlsx
+++ b/deelnemende_teams.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="12000" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Teamnaam</t>
   </si>
@@ -91,6 +91,42 @@
   </si>
   <si>
     <t>NTDS_Rotterdam.xlsx</t>
+  </si>
+  <si>
+    <t>Blue Suede Shoes</t>
+  </si>
+  <si>
+    <t>Delft</t>
+  </si>
+  <si>
+    <t>NTDS_Delft.xlsx</t>
+  </si>
+  <si>
+    <t>LeiDance</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>NTDS_Leiden.xlsx</t>
+  </si>
+  <si>
+    <t>Let's Dance</t>
+  </si>
+  <si>
+    <t>Maastricht</t>
+  </si>
+  <si>
+    <t>NTDS_Maastricht.xlsx</t>
+  </si>
+  <si>
+    <t>WUBDA</t>
+  </si>
+  <si>
+    <t>Wageningen</t>
+  </si>
+  <si>
+    <t>NTDS_Wageningen.xlsx</t>
   </si>
 </sst>
 </file>
@@ -408,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,57 +492,101 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
